--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/87.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/87.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1059091047589185</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.649850126670185</v>
+        <v>-2.647806892403079</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.03609544861338072</v>
+        <v>-0.03486279892567289</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2277147615418103</v>
+        <v>0.226156414212719</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1071999229665731</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.802439471658337</v>
+        <v>-2.800945775920981</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1137706765592761</v>
+        <v>-0.1127020955336135</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2431518538703036</v>
+        <v>0.2422595399202212</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1160525190887792</v>
       </c>
       <c r="E4" t="n">
-        <v>-3.037580970323662</v>
+        <v>-3.035670698764088</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.2133554750553153</v>
+        <v>-0.2122143134691197</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2596538677003991</v>
+        <v>0.2581241866431149</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.1328595838066488</v>
       </c>
       <c r="E5" t="n">
-        <v>-3.23335025954287</v>
+        <v>-3.228648686006158</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2775038822322923</v>
+        <v>-0.2758638055325168</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3004441427199557</v>
+        <v>0.2997415141003419</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.1527742133431682</v>
       </c>
       <c r="E6" t="n">
-        <v>-3.381288349450142</v>
+        <v>-3.377217738853526</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.3347742139375814</v>
+        <v>-0.3329005376186114</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2881481418767148</v>
+        <v>0.288895904626408</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1673167273903508</v>
       </c>
       <c r="E7" t="n">
-        <v>-3.135088683955036</v>
+        <v>-3.136107556445544</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.4027571924092735</v>
+        <v>-0.3984163869528575</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2858975345795145</v>
+        <v>0.287302791818742</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1699471007063065</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.819092135895589</v>
+        <v>-2.819738041892266</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.4355428684671886</v>
+        <v>-0.4328811746338601</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2758289640477576</v>
+        <v>0.2771470026302101</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1529593245457806</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.390969295424472</v>
+        <v>-2.392821624519756</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.4581514081128856</v>
+        <v>-0.4557885754111636</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2456452095968497</v>
+        <v>0.2466332810931815</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.1098330159378969</v>
       </c>
       <c r="E10" t="n">
-        <v>-2.035791138130391</v>
+        <v>-2.032692131171835</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.5142000687026483</v>
+        <v>-0.512211117375773</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3045800148289843</v>
+        <v>0.3052460482079932</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.03537545283737944</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.574483733478765</v>
+        <v>-1.569712324024565</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.6167088269230178</v>
+        <v>-0.6168271515343069</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3063243879644837</v>
+        <v>0.3066696030675231</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.07145507484149102</v>
       </c>
       <c r="E12" t="n">
-        <v>-1.128792737834597</v>
+        <v>-1.121015639285382</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.7953295863947772</v>
+        <v>-0.7961133344643985</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3172596557778997</v>
+        <v>0.3169406672639604</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.2057634511291068</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.578446063187905</v>
+        <v>-0.5722053548234189</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.07111680887927</v>
+        <v>-1.073062455838096</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3500800973143894</v>
+        <v>0.3485790825289125</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.3638752691319285</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.0149324209715766</v>
+        <v>-0.007646918487821053</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.448225274026503</v>
+        <v>-1.451502987743347</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4270978307707504</v>
+        <v>0.4266166033567962</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.5381381001014114</v>
       </c>
       <c r="E15" t="n">
-        <v>0.4756572753707238</v>
+        <v>0.4867834483559619</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.863441583056956</v>
+        <v>-1.869992741045906</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4960328954188462</v>
+        <v>0.496084128755693</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.7237338364168364</v>
       </c>
       <c r="E16" t="n">
-        <v>1.052272623644277</v>
+        <v>1.065606099558666</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.326351859247076</v>
+        <v>-2.336081923803237</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5866018464711955</v>
+        <v>0.5869348631607</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.9184894430813898</v>
       </c>
       <c r="E17" t="n">
-        <v>1.565397669151065</v>
+        <v>1.581370271833743</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.667296907628563</v>
+        <v>-2.677255692438505</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7062213193570549</v>
+        <v>0.7073594313398668</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.117277695469927</v>
       </c>
       <c r="E18" t="n">
-        <v>2.025335801883392</v>
+        <v>2.040286787432517</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.987547347447989</v>
+        <v>-2.997855921766047</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8361515012833401</v>
+        <v>0.8398061459784145</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.311187434146195</v>
       </c>
       <c r="E19" t="n">
-        <v>2.396836656328603</v>
+        <v>2.412515277245089</v>
       </c>
       <c r="F19" t="n">
-        <v>-3.288153767071052</v>
+        <v>-3.299028042816793</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9749938441382681</v>
+        <v>0.9785667594626583</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.487756671142824</v>
       </c>
       <c r="E20" t="n">
-        <v>2.737494432071343</v>
+        <v>2.754348980052599</v>
       </c>
       <c r="F20" t="n">
-        <v>-3.535889517790548</v>
+        <v>-3.547404820167551</v>
       </c>
       <c r="G20" t="n">
-        <v>1.080241146197236</v>
+        <v>1.084403244895365</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.641034482714719</v>
       </c>
       <c r="E21" t="n">
-        <v>3.077804553028336</v>
+        <v>3.09210109369131</v>
       </c>
       <c r="F21" t="n">
-        <v>-3.754470755201148</v>
+        <v>-3.765137962877134</v>
       </c>
       <c r="G21" t="n">
-        <v>1.230021806468964</v>
+        <v>1.233448950751611</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.767667471872796</v>
       </c>
       <c r="E22" t="n">
-        <v>3.328453894820657</v>
+        <v>3.342733357704683</v>
       </c>
       <c r="F22" t="n">
-        <v>-3.943267431243773</v>
+        <v>-3.951620599872176</v>
       </c>
       <c r="G22" t="n">
-        <v>1.322283287399289</v>
+        <v>1.326067235277834</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.865445543724783</v>
       </c>
       <c r="E23" t="n">
-        <v>3.581993040779411</v>
+        <v>3.594568385292602</v>
       </c>
       <c r="F23" t="n">
-        <v>-4.07199119007145</v>
+        <v>-4.083302169021743</v>
       </c>
       <c r="G23" t="n">
-        <v>1.401147250744166</v>
+        <v>1.405940007422053</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.933115648010447</v>
       </c>
       <c r="E24" t="n">
-        <v>3.743260947077011</v>
+        <v>3.755997310648864</v>
       </c>
       <c r="F24" t="n">
-        <v>-4.213521453348807</v>
+        <v>-4.224583279702648</v>
       </c>
       <c r="G24" t="n">
-        <v>1.460255273448497</v>
+        <v>1.466408763156209</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.96843319156302</v>
       </c>
       <c r="E25" t="n">
-        <v>3.902244090519514</v>
+        <v>3.914777960426686</v>
       </c>
       <c r="F25" t="n">
-        <v>-4.174383453442561</v>
+        <v>-4.185881678040615</v>
       </c>
       <c r="G25" t="n">
-        <v>1.463074326816427</v>
+        <v>1.469210738745189</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.973879250313424</v>
       </c>
       <c r="E26" t="n">
-        <v>3.928304781195605</v>
+        <v>3.941965784513408</v>
       </c>
       <c r="F26" t="n">
-        <v>-4.053280043550173</v>
+        <v>-4.067153909184161</v>
       </c>
       <c r="G26" t="n">
-        <v>1.437745540952434</v>
+        <v>1.444845627550458</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.951563238954036</v>
       </c>
       <c r="E27" t="n">
-        <v>4.086488928551567</v>
+        <v>4.098303092060177</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.91782977453898</v>
+        <v>-3.933971630209455</v>
       </c>
       <c r="G27" t="n">
-        <v>1.373587375044629</v>
+        <v>1.381794467670951</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.902830029612265</v>
       </c>
       <c r="E28" t="n">
-        <v>4.008289778744345</v>
+        <v>4.016723761862417</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.780079189695431</v>
+        <v>-3.796002083842954</v>
       </c>
       <c r="G28" t="n">
-        <v>1.306343010512478</v>
+        <v>1.313483961795845</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.832402708428058</v>
       </c>
       <c r="E29" t="n">
-        <v>3.948934738165931</v>
+        <v>3.956679510919278</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.712265159251198</v>
+        <v>-3.726778526714757</v>
       </c>
       <c r="G29" t="n">
-        <v>1.214154110142686</v>
+        <v>1.221848259479863</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.743448752872501</v>
       </c>
       <c r="E30" t="n">
-        <v>3.805863205338432</v>
+        <v>3.812327144670608</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.535241782031842</v>
+        <v>-3.547675015027351</v>
       </c>
       <c r="G30" t="n">
-        <v>1.137330941382208</v>
+        <v>1.144074224384334</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.642928127316354</v>
       </c>
       <c r="E31" t="n">
-        <v>3.629565633724406</v>
+        <v>3.635384276980582</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.384607842733343</v>
+        <v>-3.396283554248332</v>
       </c>
       <c r="G31" t="n">
-        <v>0.9888860073925586</v>
+        <v>0.9969137833399165</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.535137135516508</v>
       </c>
       <c r="E32" t="n">
-        <v>3.464235655719663</v>
+        <v>3.469513909256241</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.246405611628663</v>
+        <v>-3.258264299346675</v>
       </c>
       <c r="G32" t="n">
-        <v>0.9185932593180217</v>
+        <v>0.9258946197393727</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.42424257421316</v>
       </c>
       <c r="E33" t="n">
-        <v>3.31346570411025</v>
+        <v>3.316393323358641</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.101327134814324</v>
+        <v>-3.114052214853658</v>
       </c>
       <c r="G33" t="n">
-        <v>0.7978765391346926</v>
+        <v>0.8056426591117256</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.315158349262692</v>
       </c>
       <c r="E34" t="n">
-        <v>3.039190474983416</v>
+        <v>3.042747532370211</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.921925981836666</v>
+        <v>-2.936094439157523</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6991651470477567</v>
+        <v>0.7063451332544347</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.208114408928251</v>
       </c>
       <c r="E35" t="n">
-        <v>2.743658290430559</v>
+        <v>2.748570591561088</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.839068257900442</v>
+        <v>-2.853170233867534</v>
       </c>
       <c r="G35" t="n">
-        <v>0.6524702299566021</v>
+        <v>0.6572825040961442</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.106254225278761</v>
       </c>
       <c r="E36" t="n">
-        <v>2.463396079940765</v>
+        <v>2.467646007216346</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.764106567045399</v>
+        <v>-2.775240059078758</v>
       </c>
       <c r="G36" t="n">
-        <v>0.604747596525127</v>
+        <v>0.6098166472695801</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.008806850759333</v>
       </c>
       <c r="E37" t="n">
-        <v>2.188414562670257</v>
+        <v>2.195422551246093</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.702460054484442</v>
+        <v>-2.713461193730947</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5370311533891738</v>
+        <v>0.5412835203474613</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.9161514018382644</v>
       </c>
       <c r="E38" t="n">
-        <v>1.957719995659102</v>
+        <v>1.963203792463744</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.627850287859883</v>
+        <v>-2.63700336745584</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5410169850117225</v>
+        <v>0.5465282282468179</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.8293569218008521</v>
       </c>
       <c r="E39" t="n">
-        <v>1.691814707979281</v>
+        <v>1.696264689236835</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.504854294107546</v>
+        <v>-2.514407481667451</v>
       </c>
       <c r="G39" t="n">
-        <v>0.4771363330118378</v>
+        <v>0.4807354749253281</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.7468534373772222</v>
       </c>
       <c r="E40" t="n">
-        <v>1.477780124253499</v>
+        <v>1.482075795579836</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.442942466052204</v>
+        <v>-2.45193086706544</v>
       </c>
       <c r="G40" t="n">
-        <v>0.4385917859240676</v>
+        <v>0.4412345722164169</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.670023894439806</v>
       </c>
       <c r="E41" t="n">
-        <v>1.192409828095941</v>
+        <v>1.194842801675489</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.328016942694598</v>
+        <v>-2.338499649365867</v>
       </c>
       <c r="G41" t="n">
-        <v>0.3918986985949433</v>
+        <v>0.3940468392184499</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.597782975689523</v>
       </c>
       <c r="E42" t="n">
-        <v>0.9486666181264382</v>
+        <v>0.9501121301303311</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.211770941071832</v>
+        <v>-2.221757782232904</v>
       </c>
       <c r="G42" t="n">
-        <v>0.3819405237056777</v>
+        <v>0.3826376630392007</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.5299109701764971</v>
       </c>
       <c r="E43" t="n">
-        <v>0.8062434309783224</v>
+        <v>0.8076639362344686</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.064953275447746</v>
+        <v>-2.072355272780761</v>
       </c>
       <c r="G43" t="n">
-        <v>0.323984031239047</v>
+        <v>0.3253837991921838</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.4666724900604801</v>
       </c>
       <c r="E44" t="n">
-        <v>0.6150186607215643</v>
+        <v>0.6152132254174469</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.002150353283676</v>
+        <v>-2.008370324345152</v>
       </c>
       <c r="G44" t="n">
-        <v>0.2881280144943822</v>
+        <v>0.2895613280847401</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.4067386902494229</v>
       </c>
       <c r="E45" t="n">
-        <v>0.5349799901532701</v>
+        <v>0.536219958889099</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.925047840853247</v>
+        <v>-1.931738060756496</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2496383602675192</v>
+        <v>0.2516413397699598</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.3507148374542875</v>
       </c>
       <c r="E46" t="n">
-        <v>0.3085627968481491</v>
+        <v>0.308587193675219</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.879267804777214</v>
+        <v>-1.886023896113552</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1886072576694016</v>
+        <v>0.1895276279706144</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.297681694599908</v>
       </c>
       <c r="E47" t="n">
-        <v>0.1861559864695511</v>
+        <v>0.1863322535451313</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.772897638752353</v>
+        <v>-1.779472583647697</v>
       </c>
       <c r="G47" t="n">
-        <v>0.144725294739409</v>
+        <v>0.1456151690067845</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.2481432621065564</v>
       </c>
       <c r="E48" t="n">
-        <v>0.09433181866445424</v>
+        <v>0.09416653016105551</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.749132079582865</v>
+        <v>-1.754357270020565</v>
       </c>
       <c r="G48" t="n">
-        <v>0.1386730518640381</v>
+        <v>0.1399734027468649</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.2027793762450021</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.0283281087949942</v>
+        <v>-0.02816769965700946</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.691415895862873</v>
+        <v>-1.697455330404032</v>
       </c>
       <c r="G49" t="n">
-        <v>0.07309377077941011</v>
+        <v>0.07445084428517454</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.1609253312478033</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.1345049299653264</v>
+        <v>-0.133690075941191</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.654960937013641</v>
+        <v>-1.659835423062212</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04318692031574584</v>
+        <v>0.04431405372637625</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.1230422516681084</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.2430561723302387</v>
+        <v>-0.2416600639011624</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.651361185179474</v>
+        <v>-1.654404689356447</v>
       </c>
       <c r="G51" t="n">
-        <v>0.01343925914871281</v>
+        <v>0.01445538699617507</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.08821200830250824</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.3363008453914818</v>
+        <v>-0.3343454397018276</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.617397142374082</v>
+        <v>-1.61958248815887</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.013788819702674</v>
+        <v>-0.01162177153818815</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.05657910504417093</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.4414859355414217</v>
+        <v>-0.4396982580378731</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.569057879138415</v>
+        <v>-1.571156616187105</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.03210595746677167</v>
+        <v>-0.02943145529923144</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.02787843161508715</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.5134443769841576</v>
+        <v>-0.5113505193008815</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.576546485207527</v>
+        <v>-1.577027102700805</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.03774955348872145</v>
+        <v>-0.03621560298670009</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.001500294322207703</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.5693997197103778</v>
+        <v>-0.567164970350773</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.559291829262325</v>
+        <v>-1.561260653206867</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.08230181924246009</v>
+        <v>-0.080290300850545</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.0231290634998537</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.6088713462268052</v>
+        <v>-0.607266644926281</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.516091757648937</v>
+        <v>-1.518246607399887</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.1140762468183269</v>
+        <v>-0.1134016745498436</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.0468397323292372</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.7069057263625508</v>
+        <v>-0.7045990063630896</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.600199818972494</v>
+        <v>-1.60117386229326</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.1254171118817803</v>
+        <v>-0.1235318470699521</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.06993068841428356</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.7808573885768993</v>
+        <v>-0.7795789948384354</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.602240613556893</v>
+        <v>-1.601684365899698</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1478792705650578</v>
+        <v>-0.1463001859329571</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.09253932980728012</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.8914177096510197</v>
+        <v>-0.8917720735642104</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.614919644585131</v>
+        <v>-1.612909955955246</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1610962516301882</v>
+        <v>-0.1596489098642651</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.1147443757398263</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.982594751618087</v>
+        <v>-0.9806301971182815</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.628111618902515</v>
+        <v>-1.627829835549857</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1939081542772035</v>
+        <v>-0.1915227545104418</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.1369090566737872</v>
       </c>
       <c r="E61" t="n">
-        <v>-1.061446516549429</v>
+        <v>-1.060246192657589</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.653125685697306</v>
+        <v>-1.653004311482634</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.2020444961050226</v>
+        <v>-0.2001427634349221</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.1590303609494469</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.102044056635134</v>
+        <v>-1.100196606905264</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.623415229691555</v>
+        <v>-1.625255970293981</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.231887914818305</v>
+        <v>-0.2293933392504055</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.1815637676281844</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.107026498643489</v>
+        <v>-1.107443074465707</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.684085869169714</v>
+        <v>-1.685841830798072</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2624858054087248</v>
+        <v>-0.2596734611682396</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.204374487490919</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.168619948105568</v>
+        <v>-1.165622187979351</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.785091782842577</v>
+        <v>-1.787310064343909</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2721865937724027</v>
+        <v>-0.2688082431438952</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.2273305233133136</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.163991260089727</v>
+        <v>-1.16241522506101</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.858426205332056</v>
+        <v>-1.86065546540557</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.3003155254633464</v>
+        <v>-0.2967828649036217</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.2501931560824049</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.189839088449633</v>
+        <v>-1.188793684409687</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.961622344155121</v>
+        <v>-1.965106211060706</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3451989781445592</v>
+        <v>-0.3418743005356056</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.2721748937786532</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.196774496464935</v>
+        <v>-1.195285680092993</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.034082140394144</v>
+        <v>-2.038272295443403</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.3643492675530948</v>
+        <v>-0.360511646654996</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.2924162288271157</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.184582792057418</v>
+        <v>-1.185290300042446</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.182904005362023</v>
+        <v>-2.18600118255855</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.4169171108406564</v>
+        <v>-0.4129995903339036</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.3094137607638158</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.172979661102963</v>
+        <v>-1.172330095582226</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.322058627603446</v>
+        <v>-2.324467814276601</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.4213805103530987</v>
+        <v>-0.4172659854677563</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.3223361708099299</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.147810674456278</v>
+        <v>-1.146699398983243</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.445956694036693</v>
+        <v>-2.447324746114639</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4497082761846622</v>
+        <v>-0.4448606266458687</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.3306327111100408</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.26498009598364</v>
+        <v>-1.262359266835654</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.562039846838767</v>
+        <v>-2.562840672687337</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4811789632635085</v>
+        <v>-0.4770931046499733</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.3335837724856337</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.25975856507</v>
+        <v>-1.255596466371871</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.682922465446172</v>
+        <v>-2.683608626207513</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4862449644045779</v>
+        <v>-0.4826409431256736</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.3310432011552236</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.220356469510722</v>
+        <v>-1.214563442922969</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.820858466175452</v>
+        <v>-2.820991428882983</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.5317243095869736</v>
+        <v>-0.5267790727399003</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.3231108405955576</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.186447929486914</v>
+        <v>-1.180774447351803</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.909742206397946</v>
+        <v>-2.908704121406121</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.5775909543991042</v>
+        <v>-0.5725011663516417</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.3105231605732592</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.176596490716079</v>
+        <v>-1.1681338413262</v>
       </c>
       <c r="F75" t="n">
-        <v>-3.035838426950193</v>
+        <v>-3.034395049668669</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.5931469812595636</v>
+        <v>-0.5887695805625427</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.2947102496610633</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.063958779816955</v>
+        <v>-1.056068236021865</v>
       </c>
       <c r="F76" t="n">
-        <v>-3.07966336229691</v>
+        <v>-3.078223644539446</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.5937837384460884</v>
+        <v>-0.5894941663265194</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.2765488968549767</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.9573232982977079</v>
+        <v>-0.9487282961209743</v>
       </c>
       <c r="F77" t="n">
-        <v>-3.114426706149181</v>
+        <v>-3.112442024267042</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.6035717454665414</v>
+        <v>-0.59959018328873</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.2573520467446667</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.7786360574721829</v>
+        <v>-0.7675184233764193</v>
       </c>
       <c r="F78" t="n">
-        <v>-3.15546582880485</v>
+        <v>-3.154140776134615</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.5811199554347686</v>
+        <v>-0.5780361964931303</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.2374705745838023</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.5937257959817974</v>
+        <v>-0.5813907602152447</v>
       </c>
       <c r="F79" t="n">
-        <v>-3.20037062870975</v>
+        <v>-3.201946358778128</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.6141239830949594</v>
+        <v>-0.6082870422184805</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.216923800302358</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.4068985538043928</v>
+        <v>-0.3955582986616161</v>
       </c>
       <c r="F80" t="n">
-        <v>-3.213248798838946</v>
+        <v>-3.216725041736072</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.5692319915242722</v>
+        <v>-0.5637701518639933</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.1957295386032692</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.1505921977352331</v>
+        <v>-0.1386597096153341</v>
       </c>
       <c r="F81" t="n">
-        <v>-3.240307014781859</v>
+        <v>-3.241791561709064</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.5226108748350041</v>
+        <v>-0.5177211407695149</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.1736765454702652</v>
       </c>
       <c r="E82" t="n">
-        <v>0.1215233022752362</v>
+        <v>0.1342797932294218</v>
       </c>
       <c r="F82" t="n">
-        <v>-3.217868338044636</v>
+        <v>-3.217900968800842</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.4462000124520074</v>
+        <v>-0.4408888231988853</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.1519262987125858</v>
       </c>
       <c r="E83" t="n">
-        <v>0.3381372405429857</v>
+        <v>0.3511419692126078</v>
       </c>
       <c r="F83" t="n">
-        <v>-3.243455425315232</v>
+        <v>-3.243036409810307</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.4115705461882829</v>
+        <v>-0.4063221787648659</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.1311361537023689</v>
       </c>
       <c r="E84" t="n">
-        <v>0.6272768464828468</v>
+        <v>0.6407408454220601</v>
       </c>
       <c r="F84" t="n">
-        <v>-3.182055320707682</v>
+        <v>-3.17955739057606</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.3544557442555645</v>
+        <v>-0.3497996098092698</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.1125793415019172</v>
       </c>
       <c r="E85" t="n">
-        <v>0.853156089751076</v>
+        <v>0.8659516156285736</v>
       </c>
       <c r="F85" t="n">
-        <v>-3.123840831794787</v>
+        <v>-3.120671074037727</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.3381720820277448</v>
+        <v>-0.3350773445139252</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.09715959458625288</v>
       </c>
       <c r="E86" t="n">
-        <v>1.111113501092193</v>
+        <v>1.122928274521479</v>
       </c>
       <c r="F86" t="n">
-        <v>-3.048998075471709</v>
+        <v>-3.044448677143846</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.3183240433650096</v>
+        <v>-0.3141503561740226</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.08593973131090138</v>
       </c>
       <c r="E87" t="n">
-        <v>1.315855943307718</v>
+        <v>1.327049207567398</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.930726527281463</v>
+        <v>-2.925879487663347</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.2775740231101183</v>
+        <v>-0.2742487355804879</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.08116605542981897</v>
       </c>
       <c r="E88" t="n">
-        <v>1.453100903910243</v>
+        <v>1.46441859198798</v>
       </c>
       <c r="F88" t="n">
-        <v>-2.765558178256059</v>
+        <v>-2.759846271118314</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.23190011323184</v>
+        <v>-0.2292054836819671</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.08449940262707906</v>
       </c>
       <c r="E89" t="n">
-        <v>1.533285955440956</v>
+        <v>1.541570507993225</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.511481692181091</v>
+        <v>-2.504740848861671</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.2167002800466017</v>
+        <v>-0.2146472870486677</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.09791514512247616</v>
       </c>
       <c r="E90" t="n">
-        <v>1.590392828404877</v>
+        <v>1.597678330888633</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.272014026155591</v>
+        <v>-2.265448230070398</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.1752012772006638</v>
+        <v>-0.1724145496286019</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.1222336727355122</v>
       </c>
       <c r="E91" t="n">
-        <v>1.58804402387872</v>
+        <v>1.594341454866144</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.921368189410426</v>
+        <v>-1.915241536212491</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.1538784503415517</v>
+        <v>-0.1536228935779942</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.155965027712574</v>
       </c>
       <c r="E92" t="n">
-        <v>1.574906332501567</v>
+        <v>1.581488596445032</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.589555483321887</v>
+        <v>-1.584191840890564</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.145775044230277</v>
+        <v>-0.1452322148279712</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.1967919744821972</v>
       </c>
       <c r="E93" t="n">
-        <v>1.530478490565885</v>
+        <v>1.538842942726808</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.254515077011997</v>
+        <v>-1.249362467134829</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.1166385235813455</v>
+        <v>-0.1168684636764795</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.2385308359028742</v>
       </c>
       <c r="E94" t="n">
-        <v>1.519214475507702</v>
+        <v>1.527004992311805</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.9364920675040548</v>
+        <v>-0.9330820010003563</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.1103654894209917</v>
+        <v>-0.1108515962003599</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.275319986378592</v>
       </c>
       <c r="E95" t="n">
-        <v>1.488760526196995</v>
+        <v>1.495086013535549</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.6832029890227678</v>
+        <v>-0.6805327562999648</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.162716200947631</v>
+        <v>-0.163842114516908</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.3009563778526834</v>
       </c>
       <c r="E96" t="n">
-        <v>1.412623518197858</v>
+        <v>1.419174066266132</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.4227449029069841</v>
+        <v>-0.4214945655196506</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.2320044096675639</v>
+        <v>-0.2319806227611707</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.311585399591625</v>
       </c>
       <c r="E97" t="n">
-        <v>1.323919094654327</v>
+        <v>1.329728589100353</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.2421949643346705</v>
+        <v>-0.2437520918224083</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.2633555522937676</v>
+        <v>-0.264025245196837</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.3063452704301808</v>
       </c>
       <c r="E98" t="n">
-        <v>1.237021256155324</v>
+        <v>1.241316317560984</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.09149942304782081</v>
+        <v>-0.09471675461766681</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.3011755136175612</v>
+        <v>-0.3014865731627027</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.2884462380963032</v>
       </c>
       <c r="E99" t="n">
-        <v>1.156110399019281</v>
+        <v>1.157731568178077</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1090455450703244</v>
+        <v>0.1048517304970047</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.3446061352467601</v>
+        <v>-0.3447964304979055</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.2670736139699493</v>
       </c>
       <c r="E100" t="n">
-        <v>0.9715953661274279</v>
+        <v>0.9745681195058979</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1742271578737126</v>
+        <v>0.1705981298470617</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.316236284888501</v>
+        <v>-0.3166302936456802</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.2514297455366852</v>
       </c>
       <c r="E101" t="n">
-        <v>0.83620029493748</v>
+        <v>0.8394865475437986</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2196979641666338</v>
+        <v>0.2173089048758117</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.3688663400850909</v>
+        <v>-0.369456743300183</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.2529212467666182</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7133183563516953</v>
+        <v>0.7177780963400771</v>
       </c>
       <c r="F102" t="n">
-        <v>0.216724600867487</v>
+        <v>0.2147527273195605</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.3373834545927096</v>
+        <v>-0.3384489860149885</v>
       </c>
     </row>
   </sheetData>
